--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -37,22 +37,61 @@
     <t>Name</t>
   </si>
   <si>
+    <t>ActivityTemplate</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
     <t>Remark</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Mana</t>
-  </si>
-  <si>
     <t>零件id</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>绑定的物体模板</t>
+  </si>
+  <si>
+    <t>物体简介
+一句对物体简短的介绍, 比如拾起物体时弹出的描述</t>
+  </si>
+  <si>
+    <t>物体详情
+在图鉴中的描述</t>
+  </si>
+  <si>
+    <t>物体品质, 用于武器和道具
+通用物品: 1
+基础: 2
+普通: 3
+稀有: 4
+史诗: 5
+传说: 6
+独一无二: 7</t>
+  </si>
+  <si>
+    <t>商店售价</t>
   </si>
   <si>
     <t>图标</t>
@@ -67,9 +106,21 @@
     <t>消耗法力值</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>$ActivityBase</t>
+  </si>
+  <si>
+    <t>ActivityQuality</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
     <t>PartType</t>
   </si>
   <si>
@@ -80,6 +131,33 @@
   </si>
   <si>
     <t>子弹1</t>
+  </si>
+  <si>
+    <t>part_comm0001</t>
+  </si>
+  <si>
+    <t>子弹1简介</t>
+  </si>
+  <si>
+    <t>子弹1详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0001.png</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>子弹2</t>
+  </si>
+  <si>
+    <t>子弹2简介</t>
+  </si>
+  <si>
+    <t>子弹2详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0002.png</t>
   </si>
 </sst>
 </file>
@@ -1059,25 +1137,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="2" width="21.2333333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="22.95" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.975" customWidth="1"/>
-    <col min="6" max="6" width="14.8833333333333" customWidth="1"/>
+    <col min="5" max="7" width="21.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.0666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.975" customWidth="1"/>
+    <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.95" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:6">
+    <row r="1" ht="31" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,65 +1168,163 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:6">
+    <row r="2" ht="103" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:6">
+    <row r="3" ht="27" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28530" windowHeight="14235"/>
+    <workbookView windowWidth="25860" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Mana</t>
+  </si>
+  <si>
+    <t>Param</t>
   </si>
   <si>
     <t>Remark</t>
@@ -106,6 +109,9 @@
     <t>消耗法力值</t>
   </si>
   <si>
+    <t>配置参数</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>{string:string}*</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>res://resource/sprite/prop/part/PartProp0001.png</t>
   </si>
   <si>
+    <t>"bullet":"0001"</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -158,6 +170,9 @@
   </si>
   <si>
     <t>res://resource/sprite/prop/part/PartProp0002.png</t>
+  </si>
+  <si>
+    <t>"bullet":"0007"</t>
   </si>
 </sst>
 </file>
@@ -1137,14 +1152,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1155,10 +1170,11 @@
     <col min="8" max="8" width="52.0666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.975" customWidth="1"/>
     <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="22.95" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.325" customWidth="1"/>
+    <col min="12" max="12" width="22.95" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:11">
+    <row r="1" ht="31" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,95 +1205,104 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:11">
+    <row r="2" ht="103" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:11">
+    <row r="3" ht="27" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="24" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1286,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1294,22 +1319,25 @@
       <c r="J4">
         <v>20</v>
       </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1318,13 +1346,16 @@
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Mana</t>
+    <t>BaseMana</t>
   </si>
   <si>
     <t>Param</t>
@@ -106,7 +106,7 @@
 Passive(被动效果):2</t>
   </si>
   <si>
-    <t>消耗法力值</t>
+    <t>基础消耗法力值</t>
   </si>
   <si>
     <t>配置参数</t>
@@ -133,13 +133,13 @@
     <t>int</t>
   </si>
   <si>
-    <t>{string:string}*</t>
+    <t>{string:object}*</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
-    <t>子弹1</t>
+    <t>步枪子弹</t>
   </si>
   <si>
     <t>part_comm0001</t>
@@ -160,7 +160,7 @@
     <t>0002</t>
   </si>
   <si>
-    <t>子弹2</t>
+    <t>拖尾子弹</t>
   </si>
   <si>
     <t>子弹2简介</t>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>"bullet":"0007"</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>最终释放</t>
+  </si>
+  <si>
+    <t>最终释放简介</t>
+  </si>
+  <si>
+    <t>最终释放详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0003.png</t>
+  </si>
+  <si>
+    <t>"type":"FinishPlayBuffPart"</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>双重施放</t>
+  </si>
+  <si>
+    <t>双重施放详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0004.png</t>
+  </si>
+  <si>
+    <t>"type":"MergePlayBuffPart"</t>
   </si>
 </sst>
 </file>
@@ -1152,17 +1185,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="21.2333333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="22.95" style="2" customWidth="1"/>
@@ -1357,6 +1390,77 @@
       <c r="K5" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="13065"/>
+    <workbookView windowWidth="27855" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>物体简介
-一句对物体简短的介绍, 比如拾起物体时弹出的描述</t>
+一句对物体简短的介绍, 比如拾起物体时弹出的描述，可以用富文本（BBCode）</t>
   </si>
   <si>
     <t>物体详情
@@ -145,7 +145,7 @@
     <t>part_comm0001</t>
   </si>
   <si>
-    <t>子弹1简介</t>
+    <t>普通子弹</t>
   </si>
   <si>
     <t>子弹1详情</t>
@@ -163,7 +163,7 @@
     <t>拖尾子弹</t>
   </si>
   <si>
-    <t>子弹2简介</t>
+    <t>穿透子弹</t>
   </si>
   <si>
     <t>子弹2详情</t>
@@ -178,10 +178,10 @@
     <t>0003</t>
   </si>
   <si>
-    <t>最终释放</t>
-  </si>
-  <si>
-    <t>最终释放简介</t>
+    <t>销毁施放</t>
+  </si>
+  <si>
+    <t>在[color=#9fc366]弹丸A[/color]销毁时执行[color=#9fc366]弹丸B[/color]</t>
   </si>
   <si>
     <t>最终释放详情</t>
@@ -199,6 +199,9 @@
     <t>双重施放</t>
   </si>
   <si>
+    <t>同时执行后面的两个零件</t>
+  </si>
+  <si>
     <t>双重施放详情</t>
   </si>
   <si>
@@ -206,6 +209,18 @@
   </si>
   <si>
     <t>"type":"MergePlayBuffPart"</t>
+  </si>
+  <si>
+    <t>类型/颜色</t>
+  </si>
+  <si>
+    <t>弹丸：#9fc366</t>
+  </si>
+  <si>
+    <t>增益：#7bc1d5</t>
+  </si>
+  <si>
+    <t>被动：#d57bb9</t>
   </si>
 </sst>
 </file>
@@ -1188,17 +1203,18 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="21.2333333333333" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.95" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.95" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5916666666667" style="1" customWidth="1"/>
     <col min="5" max="7" width="21.2333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="52.0666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.975" customWidth="1"/>
@@ -1331,7 +1347,7 @@
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1366,7 +1382,7 @@
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1391,7 +1407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:11">
+    <row r="6" ht="65" customHeight="1" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1401,7 +1417,7 @@
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1426,21 +1442,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="19" customHeight="1" spans="1:12">
+    <row r="7" customFormat="1" ht="43" customHeight="1" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1449,7 +1465,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1458,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1472,14 +1488,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14865"/>
+    <workbookView windowWidth="27855" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -121,6 +121,9 @@
     <t>$ActivityBase</t>
   </si>
   <si>
+    <t>BBCode</t>
+  </si>
+  <si>
     <t>ActivityQuality</t>
   </si>
   <si>
@@ -145,7 +148,19 @@
     <t>part_comm0001</t>
   </si>
   <si>
-    <t>普通子弹</t>
+    <r>
+      <t>普通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
   </si>
   <si>
     <t>子弹1详情</t>
@@ -163,7 +178,19 @@
     <t>拖尾子弹</t>
   </si>
   <si>
-    <t>穿透子弹</t>
+    <r>
+      <t>穿透</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
   </si>
   <si>
     <t>子弹2详情</t>
@@ -181,7 +208,39 @@
     <t>销毁施放</t>
   </si>
   <si>
-    <t>在[color=#9fc366]弹丸A[/color]销毁时执行[color=#9fc366]弹丸B[/color]</t>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9FC366"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹丸A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销毁时执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9FC366"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹丸B</t>
+    </r>
   </si>
   <si>
     <t>最终释放详情</t>
@@ -199,7 +258,19 @@
     <t>双重施放</t>
   </si>
   <si>
-    <t>同时执行后面的两个零件</t>
+    <r>
+      <t>同时执行后面的两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECB464"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零件</t>
+    </r>
   </si>
   <si>
     <t>双重施放详情</t>
@@ -214,13 +285,64 @@
     <t>类型/颜色</t>
   </si>
   <si>
-    <t>弹丸：#9fc366</t>
-  </si>
-  <si>
-    <t>增益：#7bc1d5</t>
-  </si>
-  <si>
-    <t>被动：#d57bb9</t>
+    <r>
+      <t>零件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECB464"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#efb464</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>弹丸：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9FC366"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#9fc366</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>增益：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#7bc1d5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>被动：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD57BB9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#d57bb9</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -233,10 +355,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -383,6 +511,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7BC1D5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9FC366"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFECB464"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD57BB9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -706,138 +862,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -848,6 +1010,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -905,6 +1070,14 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="009FC366"/>
+      <color rgb="00D57BB9"/>
+      <color rgb="00ECB464"/>
+      <color rgb="007BC1D5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1207,45 +1380,45 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="21.2333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.95" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.5916666666667" style="1" customWidth="1"/>
-    <col min="5" max="7" width="21.2333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="52.0666666666667" style="2" customWidth="1"/>
+    <col min="1" max="2" width="21.2333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.95" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.5916666666667" style="3" customWidth="1"/>
+    <col min="5" max="7" width="21.2333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="52.0666666666667" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.975" customWidth="1"/>
     <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="30.325" customWidth="1"/>
-    <col min="12" max="12" width="22.95" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.95" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1257,36 +1430,36 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="103" customHeight="1" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
@@ -1295,72 +1468,72 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>50</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1369,33 +1542,33 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1404,33 +1577,33 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="65" customHeight="1" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>60</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1439,33 +1612,33 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="43" customHeight="1" spans="1:12">
-      <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
+      <c r="H7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1474,9 +1647,9 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="L7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,35 +1661,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>57</v>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>58</v>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>59</v>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="15495"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>BaseMana</t>
+  </si>
+  <si>
+    <t>ClassType</t>
   </si>
   <si>
     <t>Param</t>
@@ -109,6 +112,9 @@
     <t>基础消耗法力值</t>
   </si>
   <si>
+    <t>绑定的逻辑类</t>
+  </si>
+  <si>
     <t>配置参数</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>res://resource/sprite/prop/part/PartProp0001.png</t>
   </si>
   <si>
+    <t>Bullet</t>
+  </si>
+  <si>
     <t>"bullet":"0001"</t>
   </si>
   <si>
@@ -179,6 +188,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>穿透</t>
     </r>
     <r>
@@ -202,7 +218,7 @@
     <t>"bullet":"0007"</t>
   </si>
   <si>
-    <t>0003</t>
+    <t>3001</t>
   </si>
   <si>
     <t>销毁施放</t>
@@ -246,13 +262,16 @@
     <t>最终释放详情</t>
   </si>
   <si>
-    <t>res://resource/sprite/prop/part/PartProp0003.png</t>
-  </si>
-  <si>
-    <t>"type":"FinishPlayBuffPart"</t>
-  </si>
-  <si>
-    <t>0004</t>
+    <t>res://resource/sprite/prop/part/PartProp3001.png</t>
+  </si>
+  <si>
+    <t>FinishPlayBuff</t>
+  </si>
+  <si>
+    <t>"BehindMaxMana":60</t>
+  </si>
+  <si>
+    <t>3002</t>
   </si>
   <si>
     <t>双重施放</t>
@@ -276,16 +295,49 @@
     <t>双重施放详情</t>
   </si>
   <si>
-    <t>res://resource/sprite/prop/part/PartProp0004.png</t>
-  </si>
-  <si>
-    <t>"type":"MergePlayBuffPart"</t>
+    <t>res://resource/sprite/prop/part/PartProp3002.png</t>
+  </si>
+  <si>
+    <t>MergePlayBuff</t>
+  </si>
+  <si>
+    <t>轮流释放</t>
+  </si>
+  <si>
+    <r>
+      <t>轮流执行后面的两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECB464"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零件</t>
+    </r>
+  </si>
+  <si>
+    <t>轮流释放详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp3003.png</t>
+  </si>
+  <si>
+    <t>TakeTurnsBuff</t>
   </si>
   <si>
     <t>类型/颜色</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>零件：</t>
     </r>
     <r>
@@ -301,6 +353,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>弹丸：</t>
     </r>
     <r>
@@ -316,6 +375,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>增益：</t>
     </r>
     <r>
@@ -331,6 +397,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>被动：</t>
     </r>
     <r>
@@ -515,28 +588,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFECB464"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD57BB9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9FC366"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF7BC1D5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9FC366"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFECB464"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD57BB9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -992,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1086,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1373,30 +1449,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="21.2333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.95" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.4916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.15" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.5916666666667" style="3" customWidth="1"/>
-    <col min="5" max="7" width="21.2333333333333" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.2333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1" style="3" customWidth="1"/>
     <col min="8" max="8" width="52.0666666666667" style="4" customWidth="1"/>
     <col min="9" max="9" width="20.975" customWidth="1"/>
     <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="30.325" customWidth="1"/>
-    <col min="12" max="12" width="22.95" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.6" customWidth="1"/>
+    <col min="12" max="12" width="30.325" customWidth="1"/>
+    <col min="13" max="13" width="22.95" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:12">
+    <row r="1" ht="31" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1430,101 +1509,110 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="103" customHeight="1" spans="1:12">
+    <row r="2" ht="103" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:12">
+    <row r="3" ht="27" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>24</v>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>32</v>
+    <row r="4" ht="48" customHeight="1" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1533,33 +1621,36 @@
         <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:11">
-      <c r="A5" s="7" t="s">
-        <v>39</v>
+    <row r="5" ht="51" customHeight="1" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -1568,88 +1659,136 @@
         <v>60</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" ht="65" customHeight="1" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="6" ht="23" customHeight="1" spans="4:4">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="4:4">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="65" customHeight="1" spans="1:12">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3">
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G8" s="3">
         <v>60</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6">
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="43" customHeight="1" spans="1:12">
-      <c r="A7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="9" customFormat="1" ht="43" customHeight="1" spans="1:13">
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G9" s="3">
         <v>60</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7">
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:11">
+      <c r="A10" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1674,27 +1813,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -155,7 +155,7 @@
   </si>
   <si>
     <r>
-      <t>普通</t>
+      <t>步枪</t>
     </r>
     <r>
       <rPr>
@@ -178,7 +178,7 @@
     <t>Bullet</t>
   </si>
   <si>
-    <t>"bullet":"0001"</t>
+    <t>"Bullet":"0001"</t>
   </si>
   <si>
     <t>0002</t>
@@ -215,7 +215,69 @@
     <t>res://resource/sprite/prop/part/PartProp0002.png</t>
   </si>
   <si>
-    <t>"bullet":"0007"</t>
+    <t>"Bullet":"0007"</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>手枪子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>手枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
+  </si>
+  <si>
+    <t>子弹3详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0003.png</t>
+  </si>
+  <si>
+    <t>"Bullet":"0003"</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>霰弹枪子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>霰弹枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
+  </si>
+  <si>
+    <t>子弹4详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0004.png</t>
+  </si>
+  <si>
+    <t>"Bullet":"0002",
+"ScatteringAngle":[15],
+"Count":5</t>
   </si>
   <si>
     <t>3001</t>
@@ -1449,14 +1511,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1674,65 +1736,102 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="4:4">
-      <c r="D6" s="6"/>
+    <row r="6" customFormat="1" ht="51" customHeight="1" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="4:4">
-      <c r="D7" s="6"/>
+    <row r="7" customFormat="1" ht="54" customHeight="1" spans="1:13">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="65" customHeight="1" spans="1:12">
-      <c r="A8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+    <row r="8" ht="23" customHeight="1" spans="4:4">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="65" customHeight="1" spans="1:12">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="43" customHeight="1" spans="1:13">
-      <c r="A9" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1741,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1750,26 +1849,27 @@
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:11">
-      <c r="A10" s="3">
-        <v>3003</v>
+    <row r="10" customFormat="1" ht="43" customHeight="1" spans="1:13">
+      <c r="A10" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1778,16 +1878,53 @@
         <v>60</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" ht="42" customHeight="1" spans="1:11">
+      <c r="A11" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>65</v>
+      <c r="K11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1813,27 +1950,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -1518,7 +1518,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
         <v>40</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>40</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -155,6 +155,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>步枪</t>
     </r>
     <r>
@@ -225,6 +232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>手枪</t>
     </r>
     <r>
@@ -255,6 +269,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>霰弹枪</t>
     </r>
     <r>
@@ -287,6 +308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -367,6 +395,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>轮流执行后面的两个</t>
     </r>
     <r>
@@ -388,6 +423,33 @@
   </si>
   <si>
     <t>TakeTurnsBuff</t>
+  </si>
+  <si>
+    <t>随机释放</t>
+  </si>
+  <si>
+    <r>
+      <t>随机执行后面的两个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFECB464"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零件</t>
+    </r>
+  </si>
+  <si>
+    <t>随机释放详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp3004.png</t>
+  </si>
+  <si>
+    <t>RandomPlayBuff</t>
   </si>
   <si>
     <t>类型/颜色</t>
@@ -650,6 +712,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF7BC1D5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD57BB9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFECB464"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -657,21 +733,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD57BB9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9FC366"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7BC1D5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1127,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1511,14 +1570,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1661,7 +1720,7 @@
       </c>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:12">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1694,12 +1753,12 @@
       <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:12">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1732,12 +1791,12 @@
       <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="51" customHeight="1" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1770,13 +1829,13 @@
       <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" customFormat="1" ht="54" customHeight="1" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1809,7 +1868,7 @@
       <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="M7" s="4"/>
@@ -1818,7 +1877,7 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" ht="65" customHeight="1" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1856,7 +1915,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" ht="43" customHeight="1" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1926,6 +1985,42 @@
       <c r="K11" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="12" customFormat="1" ht="42" customHeight="1" spans="1:13">
+      <c r="A12" s="3">
+        <v>3004</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1950,27 +2045,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="29400" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -301,6 +301,36 @@
 "Count":5</t>
   </si>
   <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>毒液子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>毒液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
+  </si>
+  <si>
+    <t>子弹5详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0005.png</t>
+  </si>
+  <si>
+    <t>"Bullet":"0008"</t>
+  </si>
+  <si>
     <t>3001</t>
   </si>
   <si>
@@ -368,6 +398,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同时执行后面的两个</t>
     </r>
     <r>
@@ -429,6 +466,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随机执行后面的两个</t>
     </r>
     <r>
@@ -712,7 +756,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFECB464"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF7BC1D5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9FC366"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -720,20 +778,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFD57BB9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFECB464"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9FC366"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1570,30 +1614,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12.4916666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6083333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.5916666666667" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.2333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.1" style="3" customWidth="1"/>
-    <col min="8" max="8" width="52.0666666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.975" customWidth="1"/>
-    <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="17.6" customWidth="1"/>
-    <col min="12" max="12" width="30.325" customWidth="1"/>
-    <col min="13" max="13" width="22.95" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.4903846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6057692307692" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1538461538462" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.5961538461538" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.2307692307692" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.0961538461538" style="3" customWidth="1"/>
+    <col min="8" max="8" width="52.0673076923077" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.9711538461538" customWidth="1"/>
+    <col min="10" max="10" width="14.8846153846154" customWidth="1"/>
+    <col min="11" max="11" width="17.5961538461538" customWidth="1"/>
+    <col min="12" max="12" width="30.3269230769231" customWidth="1"/>
+    <col min="13" max="13" width="22.9519230769231" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:13">
@@ -1873,134 +1917,87 @@
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="4:4">
-      <c r="D8" s="6"/>
+    <row r="8" customFormat="1" ht="51" customHeight="1" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" ht="65" customHeight="1" spans="1:12">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>60</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
+    <row r="9" customFormat="1" ht="54" customHeight="1" spans="1:13">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" customFormat="1" ht="43" customHeight="1" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>60</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10"/>
+    <row r="10" customFormat="1" ht="54" customHeight="1" spans="1:13">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" ht="42" customHeight="1" spans="1:11">
-      <c r="A11" s="3">
-        <v>3003</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>60</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
+    <row r="11" ht="23" customHeight="1" spans="4:4">
+      <c r="D11" s="6"/>
     </row>
-    <row r="12" customFormat="1" ht="42" customHeight="1" spans="1:13">
-      <c r="A12" s="3">
-        <v>3004</v>
+    <row r="12" ht="65" customHeight="1" spans="1:12">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -2009,18 +2006,128 @@
         <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="43" customHeight="1" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" ht="42" customHeight="1" spans="1:11">
+      <c r="A14" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="4"/>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="42" customHeight="1" spans="1:13">
+      <c r="A15" s="3">
+        <v>3004</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,34 +2145,34 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" ht="17" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" ht="17" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" ht="17" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" ht="17" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2191,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14020"/>
+    <workbookView windowWidth="27360" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,6 +308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>毒液</t>
     </r>
     <r>
@@ -756,7 +763,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFECB464"/>
+      <color rgb="FFD57BB9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9FC366"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -770,14 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9FC366"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD57BB9"/>
+      <color rgb="FFECB464"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1621,23 +1628,23 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.4903846153846" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6057692307692" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.1538461538462" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.5961538461538" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.2307692307692" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.0961538461538" style="3" customWidth="1"/>
-    <col min="8" max="8" width="52.0673076923077" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.9711538461538" customWidth="1"/>
-    <col min="10" max="10" width="14.8846153846154" customWidth="1"/>
-    <col min="11" max="11" width="17.5961538461538" customWidth="1"/>
-    <col min="12" max="12" width="30.3269230769231" customWidth="1"/>
-    <col min="13" max="13" width="22.9519230769231" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.4916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.6" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.2333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.1" style="3" customWidth="1"/>
+    <col min="8" max="8" width="52.0666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.975" customWidth="1"/>
+    <col min="10" max="10" width="14.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.6" customWidth="1"/>
+    <col min="12" max="12" width="30.325" customWidth="1"/>
+    <col min="13" max="13" width="22.95" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:13">
@@ -2145,7 +2152,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="30.125" customWidth="1"/>
   </cols>
@@ -2155,22 +2162,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="2:2">
+    <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" ht="17" spans="2:2">
+    <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="2:2">
+    <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="2:2">
+    <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
@@ -2191,7 +2198,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/PartBase.xlsx
+++ b/GunfireDungeon_Godot/excel/PartBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -336,6 +336,36 @@
   </si>
   <si>
     <t>"Bullet":"0008"</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>水子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7BC1D5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹</t>
+    </r>
+  </si>
+  <si>
+    <t>子弹6详情</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/prop/part/PartProp0006.png</t>
+  </si>
+  <si>
+    <t>"Bullet":"0009"</t>
   </si>
   <si>
     <t>3001</t>
@@ -763,13 +793,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFD57BB9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9FC366"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -785,6 +808,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFECB464"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD57BB9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1624,11 +1654,11 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,16 +1993,43 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" customFormat="1" ht="54" customHeight="1" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="L9" s="5"/>
+    <row r="9" customFormat="1" ht="51" customHeight="1" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" customFormat="1" ht="54" customHeight="1" spans="1:13">
@@ -1992,19 +2049,19 @@
     </row>
     <row r="12" ht="65" customHeight="1" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -2013,7 +2070,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2022,27 +2079,27 @@
         <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="43" customHeight="1" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -2051,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2060,7 +2117,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L13"/>
       <c r="M13" s="4"/>
@@ -2070,16 +2127,16 @@
         <v>3003</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -2088,7 +2145,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2097,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="42" customHeight="1" spans="1:13">
@@ -2105,16 +2162,16 @@
         <v>3004</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -2123,7 +2180,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2132,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M15" s="4"/>
     </row>
@@ -2159,27 +2216,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
